--- a/input/clientes.xlsx
+++ b/input/clientes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="4710"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Telefono</t>
   </si>
@@ -42,169 +42,22 @@
     <t>Destinatario</t>
   </si>
   <si>
-    <t>Bogota</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Ángela Sofía Castillo Barbosa</t>
-  </si>
-  <si>
-    <t>Cra 6 #7-42</t>
-  </si>
-  <si>
-    <t>Centro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Icononzo Tolima </t>
-  </si>
-  <si>
-    <t>Angélica Johana Cardoso delgado</t>
-  </si>
-  <si>
-    <t>321 3378429</t>
-  </si>
-  <si>
-    <t>Carrera 99#16h-02</t>
-  </si>
-  <si>
-    <t>Fontibón</t>
-  </si>
-  <si>
-    <t>Sara Castro</t>
-  </si>
-  <si>
-    <t>Carrera 78f #65ª-05 sur</t>
-  </si>
-  <si>
-    <t>Bosa la amistad </t>
-  </si>
-  <si>
-    <t>Paula Natalia Niño Varela</t>
-  </si>
-  <si>
-    <t>Cra 24a No 8-125 mz b casa 7b conjunto la cabaña casas exteriores</t>
-  </si>
-  <si>
-    <t>Villavicencio</t>
-  </si>
-  <si>
-    <t>Stefania</t>
-  </si>
-  <si>
-    <t>calle 83 N6A60 conjunto residencial la árboleda margaritas</t>
-  </si>
-  <si>
-    <t>Ibague</t>
-  </si>
-  <si>
-    <t>Jennifer Tatiana Jaimes Garzón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cra 9 # 11-30 sur </t>
-  </si>
-  <si>
-    <t>Villa del rosario etapa 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiquinquirá Boyacá </t>
-  </si>
-  <si>
-    <t>Alejandra Sánchez cuartas</t>
-  </si>
-  <si>
-    <t>Diagonal 50A Sur #24-45, Multifamiliar meta, bloque 23, apto 149</t>
-  </si>
-  <si>
-    <t>Tunal </t>
-  </si>
-  <si>
-    <t>Valentina González</t>
-  </si>
-  <si>
-    <t>Cll130 #132a 56</t>
-  </si>
-  <si>
-    <t>Suba Miramar</t>
-  </si>
-  <si>
-    <t>Daily Michell Galindo</t>
-  </si>
-  <si>
-    <t>305 8305401</t>
-  </si>
-  <si>
-    <t>Calle 167 #16 40</t>
-  </si>
-  <si>
-    <t>Toberin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angie Lorena Mora Trujillo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">316 729 2871 </t>
-  </si>
-  <si>
-    <t>Calle 74#20c 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Felipe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julieta Sánchez </t>
-  </si>
-  <si>
-    <t>Cr 19 25 56 int 312 torres del Edén</t>
-  </si>
-  <si>
-    <t>El Eden</t>
-  </si>
-  <si>
-    <t>El Retiro </t>
-  </si>
-  <si>
-    <t>valentina beltran</t>
-  </si>
-  <si>
-    <t>carrera 10#11a-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> centro</t>
-  </si>
-  <si>
-    <t>barbosa santader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sarah Torres Serrano </t>
-  </si>
-  <si>
-    <t>Cll 135#12b-05 edificio Ikono apto 304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo Country </t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Felipe Rojas Moreno </t>
-  </si>
-  <si>
-    <t>Carrera 111a #145-87 torre 23 apto 404</t>
-  </si>
-  <si>
-    <t>Suba-Tibabuyes</t>
-  </si>
-  <si>
-    <t>Tatiana Veloza</t>
-  </si>
-  <si>
-    <t>301 2363379</t>
-  </si>
-  <si>
-    <t>Calle 15 #119a-07 Solsticio Etapa 1 TORRE 7 APTO</t>
+    <t>Luis Javier Giraldo Martinez</t>
+  </si>
+  <si>
+    <t>CR 29A #29A - 26 SUR</t>
+  </si>
+  <si>
+    <t>La Guaca</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Bogotá D:C</t>
   </si>
 </sst>
 </file>
@@ -534,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,306 +427,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>123456789</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>3233668024</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>67000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>3014364284</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>67000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
-        <v>3134785355</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>3168968531</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>3219205672</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
+      <c r="B7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>3017528408</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9">
-        <v>3202749822</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9">
-        <v>67000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
+      <c r="B9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10">
-        <v>67000</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
+      <c r="B10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
+      <c r="B11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12">
-        <v>3041140844</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>48</v>
-      </c>
+      <c r="B12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13">
-        <v>3232507823</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
+      <c r="B13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14">
-        <v>3176996004</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
+      <c r="B14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15">
-        <v>3213781543</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
+      <c r="B15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17"/>
